--- a/medicine/Bioéthique/Laissez-les-vivre-SOS_futures_mères/Laissez-les-vivre-SOS_futures_mères.xlsx
+++ b/medicine/Bioéthique/Laissez-les-vivre-SOS_futures_mères/Laissez-les-vivre-SOS_futures_mères.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Laissez-les-vivre-SOS_futures_m%C3%A8res</t>
+          <t>Laissez-les-vivre-SOS_futures_mères</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laissez-les-vivre – SOS futures mères est une association française du mouvement pro-vie qui milite contre l'IVG en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Laissez-les-vivre-SOS_futures_m%C3%A8res</t>
+          <t>Laissez-les-vivre-SOS_futures_mères</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Création</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette association est la première spécifiquement anti-avortement en France[1], elle a été fondée en 1971[2] par Geneviève Poullot et Paul Chauchard (président), sous le nom de Laissez-les vivre. Jérôme Lejeune en est  le conseiller scientifique jusqu’en 1985[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette association est la première spécifiquement anti-avortement en France, elle a été fondée en 1971 par Geneviève Poullot et Paul Chauchard (président), sous le nom de Laissez-les vivre. Jérôme Lejeune en est  le conseiller scientifique jusqu’en 1985,.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Laissez-les-vivre-SOS_futures_m%C3%A8res</t>
+          <t>Laissez-les-vivre-SOS_futures_mères</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,14 +556,16 @@
           <t>Activité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'association connut une période de forte activité dans les années 1970 et 1980, notamment dans l'opposition à une série de lois et projets de loi libéralisant l'avortement : projet de loi Messmer-Taittinger-Poniatowski de 1973, loi Veil de 1975, loi Pelletier de 1979 et loi Roudy de 1982.
 L'association est alors la principale organisatrice :
 le 17 novembre 1979, avec la Confédération nationale des associations familiales catholiques, d'une manifestation de Montparnasse à l'Assemblée nationale qui aurait rassemblé entre 40 000 et 50 000 personnes ;
-le 15 mai 1982, d'une manifestation de la Bastille à la Concorde qui aurait rassemblé entre 30 000 et 40 000 participants[5].
+le 15 mai 1982, d'une manifestation de la Bastille à la Concorde qui aurait rassemblé entre 30 000 et 40 000 participants.
 En 1982, en réponse à la loi Roudy instituant le remboursement de l'IVG par la Sécurité sociale, Laissez-les-vivre donne naissance à l'Association pour l'objection de conscience à toute participation à l'avortement (AOCPA), présidée par Michel Raoult.
-L'association publie un bulletin trimestriel ainsi que divers ouvrages[6] :
+L'association publie un bulletin trimestriel ainsi que divers ouvrages :
 Mon bébé m'a sauvée du trou noir
 "Culture de Vie" – Actes du Congrès XXVe anniversaire
 Sa vie avant la naissance
